--- a/SchedulingData/dynamic16/pso/scheduling1_11.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_11.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63.48</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.832</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.92</v>
+        <v>60.48</v>
       </c>
       <c r="E3" t="n">
-        <v>27.008</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.8</v>
+        <v>56.92</v>
       </c>
       <c r="E4" t="n">
-        <v>26.62</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>56.92</v>
       </c>
       <c r="D5" t="n">
-        <v>87.40000000000001</v>
+        <v>131.7</v>
       </c>
       <c r="E5" t="n">
-        <v>26.92</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="6">
@@ -542,36 +542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>145.74</v>
+        <v>76.66</v>
       </c>
       <c r="E6" t="n">
-        <v>22.216</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63.48</v>
+        <v>76.66</v>
       </c>
       <c r="D7" t="n">
-        <v>99.98</v>
+        <v>149.7</v>
       </c>
       <c r="E7" t="n">
-        <v>24.312</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>145.74</v>
+        <v>149.7</v>
       </c>
       <c r="D8" t="n">
-        <v>203.54</v>
+        <v>213.76</v>
       </c>
       <c r="E8" t="n">
-        <v>18.576</v>
+        <v>17.524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>203.54</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>255.14</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>15.536</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>99.98</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>149.28</v>
+        <v>127.96</v>
       </c>
       <c r="E10" t="n">
-        <v>21.012</v>
+        <v>22.984</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>75.38</v>
+        <v>34.78</v>
       </c>
       <c r="E11" t="n">
-        <v>25.632</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="12">
@@ -656,74 +656,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>75.38</v>
+        <v>34.78</v>
       </c>
       <c r="D12" t="n">
-        <v>107.3</v>
+        <v>91.98</v>
       </c>
       <c r="E12" t="n">
-        <v>23.08</v>
+        <v>24.592</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>149.28</v>
+        <v>127.96</v>
       </c>
       <c r="D13" t="n">
-        <v>204.48</v>
+        <v>191.16</v>
       </c>
       <c r="E13" t="n">
-        <v>16.632</v>
+        <v>18.784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36.92</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>101.08</v>
+        <v>126.42</v>
       </c>
       <c r="E14" t="n">
-        <v>23.212</v>
+        <v>24.128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>191.16</v>
       </c>
       <c r="D15" t="n">
-        <v>54.12</v>
+        <v>243.66</v>
       </c>
       <c r="E15" t="n">
-        <v>25.788</v>
+        <v>15.664</v>
       </c>
     </row>
     <row r="16">
@@ -732,131 +732,131 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40.8</v>
+        <v>126.42</v>
       </c>
       <c r="D16" t="n">
-        <v>80.2</v>
+        <v>190.62</v>
       </c>
       <c r="E16" t="n">
-        <v>23.32</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>80.2</v>
+        <v>213.76</v>
       </c>
       <c r="D17" t="n">
-        <v>119.9</v>
+        <v>267.26</v>
       </c>
       <c r="E17" t="n">
-        <v>20.48</v>
+        <v>14.284</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>119.9</v>
+        <v>131.7</v>
       </c>
       <c r="D18" t="n">
-        <v>184.88</v>
+        <v>195.8</v>
       </c>
       <c r="E18" t="n">
-        <v>16.112</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>54.12</v>
+        <v>267.26</v>
       </c>
       <c r="D19" t="n">
-        <v>96.72</v>
+        <v>311.4</v>
       </c>
       <c r="E19" t="n">
-        <v>22.668</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>101.08</v>
+        <v>190.62</v>
       </c>
       <c r="D20" t="n">
-        <v>167.94</v>
+        <v>245.72</v>
       </c>
       <c r="E20" t="n">
-        <v>19.156</v>
+        <v>16.908</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>204.48</v>
+        <v>311.4</v>
       </c>
       <c r="D21" t="n">
-        <v>262.84</v>
+        <v>389.2</v>
       </c>
       <c r="E21" t="n">
-        <v>13.416</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>107.3</v>
+        <v>60.48</v>
       </c>
       <c r="D22" t="n">
-        <v>157.54</v>
+        <v>124.98</v>
       </c>
       <c r="E22" t="n">
-        <v>20.176</v>
+        <v>22.272</v>
       </c>
     </row>
     <row r="23">
@@ -865,93 +865,93 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>184.88</v>
+        <v>245.72</v>
       </c>
       <c r="D23" t="n">
-        <v>257.92</v>
+        <v>294.24</v>
       </c>
       <c r="E23" t="n">
-        <v>13.408</v>
+        <v>12.696</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>157.54</v>
+        <v>195.8</v>
       </c>
       <c r="D24" t="n">
-        <v>215.84</v>
+        <v>240.9</v>
       </c>
       <c r="E24" t="n">
-        <v>15.976</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>167.94</v>
+        <v>389.2</v>
       </c>
       <c r="D25" t="n">
-        <v>226.26</v>
+        <v>436.9</v>
       </c>
       <c r="E25" t="n">
-        <v>14.944</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>215.84</v>
+        <v>240.9</v>
       </c>
       <c r="D26" t="n">
-        <v>269.34</v>
+        <v>312.3</v>
       </c>
       <c r="E26" t="n">
-        <v>12.736</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>262.84</v>
+        <v>243.66</v>
       </c>
       <c r="D27" t="n">
-        <v>331.04</v>
+        <v>285.58</v>
       </c>
       <c r="E27" t="n">
-        <v>9.215999999999999</v>
+        <v>13.112</v>
       </c>
     </row>
     <row r="28">
@@ -960,188 +960,188 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>255.14</v>
+        <v>436.9</v>
       </c>
       <c r="D28" t="n">
-        <v>310.56</v>
+        <v>521</v>
       </c>
       <c r="E28" t="n">
-        <v>12.104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>96.72</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>169.98</v>
+        <v>583.22</v>
       </c>
       <c r="E29" t="n">
-        <v>19.452</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>269.34</v>
+        <v>124.98</v>
       </c>
       <c r="D30" t="n">
-        <v>322.84</v>
+        <v>213.1</v>
       </c>
       <c r="E30" t="n">
-        <v>9.016</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>226.26</v>
+        <v>91.98</v>
       </c>
       <c r="D31" t="n">
-        <v>271.86</v>
+        <v>149.76</v>
       </c>
       <c r="E31" t="n">
-        <v>12.504</v>
+        <v>21.424</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>169.98</v>
+        <v>294.24</v>
       </c>
       <c r="D32" t="n">
-        <v>256.98</v>
+        <v>382.26</v>
       </c>
       <c r="E32" t="n">
-        <v>15.852</v>
+        <v>8.484</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>257.92</v>
+        <v>312.3</v>
       </c>
       <c r="D33" t="n">
-        <v>315.72</v>
+        <v>358.9</v>
       </c>
       <c r="E33" t="n">
-        <v>9.247999999999999</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>331.04</v>
+        <v>285.58</v>
       </c>
       <c r="D34" t="n">
-        <v>382.06</v>
+        <v>341.72</v>
       </c>
       <c r="E34" t="n">
-        <v>6.224</v>
+        <v>9.628</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>271.86</v>
+        <v>149.76</v>
       </c>
       <c r="D35" t="n">
-        <v>319.26</v>
+        <v>210.28</v>
       </c>
       <c r="E35" t="n">
-        <v>9.384</v>
+        <v>17.992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>382.06</v>
+        <v>382.26</v>
       </c>
       <c r="D36" t="n">
-        <v>432.26</v>
+        <v>434.46</v>
       </c>
       <c r="E36" t="n">
-        <v>3.344</v>
+        <v>4.884</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>310.56</v>
+        <v>341.72</v>
       </c>
       <c r="D37" t="n">
-        <v>390.56</v>
+        <v>390.92</v>
       </c>
       <c r="E37" t="n">
-        <v>7.724</v>
+        <v>6.328</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>432.26</v>
+        <v>213.1</v>
       </c>
       <c r="D38" t="n">
-        <v>496.72</v>
+        <v>292.06</v>
       </c>
       <c r="E38" t="n">
-        <v>0.528</v>
+        <v>14.264</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>496.72</v>
+        <v>292.06</v>
       </c>
       <c r="D39" t="n">
-        <v>597.0599999999999</v>
+        <v>366.76</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>9.884</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>319.26</v>
+        <v>210.28</v>
       </c>
       <c r="D40" t="n">
-        <v>388.42</v>
+        <v>258.16</v>
       </c>
       <c r="E40" t="n">
-        <v>5.588</v>
+        <v>14.344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>256.98</v>
+        <v>583.22</v>
       </c>
       <c r="D41" t="n">
-        <v>343.54</v>
+        <v>662.6799999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>11.316</v>
+        <v>23.112</v>
       </c>
     </row>
     <row r="42">
@@ -1226,55 +1226,55 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>322.84</v>
+        <v>258.16</v>
       </c>
       <c r="D42" t="n">
-        <v>382.54</v>
+        <v>308.5</v>
       </c>
       <c r="E42" t="n">
-        <v>5.656</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>388.42</v>
+        <v>358.9</v>
       </c>
       <c r="D43" t="n">
-        <v>442.5</v>
+        <v>430.6</v>
       </c>
       <c r="E43" t="n">
-        <v>2.78</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>343.54</v>
+        <v>308.5</v>
       </c>
       <c r="D44" t="n">
-        <v>392.34</v>
+        <v>380.6</v>
       </c>
       <c r="E44" t="n">
-        <v>8.076000000000001</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="45">
@@ -1283,55 +1283,55 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>382.54</v>
+        <v>380.6</v>
       </c>
       <c r="D45" t="n">
-        <v>483.66</v>
+        <v>476.86</v>
       </c>
       <c r="E45" t="n">
-        <v>1.624</v>
+        <v>3.784</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>483.66</v>
+        <v>662.6799999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>562.3099999999999</v>
+        <v>706.12</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>20.408</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>597.0599999999999</v>
+        <v>390.92</v>
       </c>
       <c r="D47" t="n">
-        <v>667.02</v>
+        <v>456.12</v>
       </c>
       <c r="E47" t="n">
-        <v>27.144</v>
+        <v>2.948</v>
       </c>
     </row>
     <row r="48">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>315.72</v>
+        <v>434.46</v>
       </c>
       <c r="D48" t="n">
-        <v>378.22</v>
+        <v>507.04</v>
       </c>
       <c r="E48" t="n">
-        <v>6.128</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="49">
@@ -1359,55 +1359,55 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>378.22</v>
+        <v>507.04</v>
       </c>
       <c r="D49" t="n">
-        <v>437.3</v>
+        <v>591.17</v>
       </c>
       <c r="E49" t="n">
-        <v>3.84</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>392.34</v>
+        <v>366.76</v>
       </c>
       <c r="D50" t="n">
-        <v>441.54</v>
+        <v>405.32</v>
       </c>
       <c r="E50" t="n">
-        <v>5.756</v>
+        <v>6.668</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>562.3099999999999</v>
+        <v>430.6</v>
       </c>
       <c r="D51" t="n">
-        <v>630.39</v>
+        <v>504.7</v>
       </c>
       <c r="E51" t="n">
-        <v>26.352</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="52">
@@ -1416,112 +1416,112 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>437.3</v>
+        <v>591.17</v>
       </c>
       <c r="D52" t="n">
-        <v>481.6</v>
+        <v>650.27</v>
       </c>
       <c r="E52" t="n">
-        <v>0.54</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>481.6</v>
+        <v>456.12</v>
       </c>
       <c r="D53" t="n">
-        <v>557.52</v>
+        <v>536.22</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>557.52</v>
+        <v>536.22</v>
       </c>
       <c r="D54" t="n">
-        <v>631.76</v>
+        <v>636.5</v>
       </c>
       <c r="E54" t="n">
-        <v>27.216</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>667.02</v>
+        <v>504.7</v>
       </c>
       <c r="D55" t="n">
-        <v>724.22</v>
+        <v>569.52</v>
       </c>
       <c r="E55" t="n">
-        <v>24.064</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>390.56</v>
+        <v>569.52</v>
       </c>
       <c r="D56" t="n">
-        <v>441.62</v>
+        <v>657.36</v>
       </c>
       <c r="E56" t="n">
-        <v>3.748</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>441.62</v>
+        <v>405.32</v>
       </c>
       <c r="D57" t="n">
-        <v>512.76</v>
+        <v>454.52</v>
       </c>
       <c r="E57" t="n">
-        <v>0.264</v>
+        <v>3.368</v>
       </c>
     </row>
     <row r="58">
@@ -1530,41 +1530,41 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>512.76</v>
+        <v>706.12</v>
       </c>
       <c r="D58" t="n">
-        <v>604.03</v>
+        <v>767.4</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>442.5</v>
+        <v>476.86</v>
       </c>
       <c r="D59" t="n">
-        <v>488.24</v>
+        <v>525.22</v>
       </c>
       <c r="E59" t="n">
-        <v>0.316</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>488.24</v>
+        <v>525.22</v>
       </c>
       <c r="D60" t="n">
-        <v>584.01</v>
+        <v>615.78</v>
       </c>
       <c r="E60" t="n">
         <v>30</v>
@@ -1583,78 +1583,78 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>631.76</v>
+        <v>454.52</v>
       </c>
       <c r="D61" t="n">
-        <v>679.6</v>
+        <v>503.7</v>
       </c>
       <c r="E61" t="n">
-        <v>23.072</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>604.03</v>
+        <v>503.7</v>
       </c>
       <c r="D62" t="n">
-        <v>672.11</v>
+        <v>589.28</v>
       </c>
       <c r="E62" t="n">
-        <v>26.352</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>441.54</v>
+        <v>636.5</v>
       </c>
       <c r="D63" t="n">
-        <v>497.94</v>
+        <v>697.54</v>
       </c>
       <c r="E63" t="n">
-        <v>1.256</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>497.94</v>
+        <v>650.27</v>
       </c>
       <c r="D64" t="n">
-        <v>577.33</v>
+        <v>712.37</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="65">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>584.01</v>
+        <v>697.54</v>
       </c>
       <c r="D65" t="n">
-        <v>657.83</v>
+        <v>774.2</v>
       </c>
       <c r="E65" t="n">
-        <v>25.788</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="66">
@@ -1682,36 +1682,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>577.33</v>
+        <v>657.36</v>
       </c>
       <c r="D66" t="n">
-        <v>639.41</v>
+        <v>729.0599999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>26.472</v>
+        <v>22.816</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>639.41</v>
+        <v>589.28</v>
       </c>
       <c r="D67" t="n">
-        <v>684.51</v>
+        <v>653.08</v>
       </c>
       <c r="E67" t="n">
-        <v>23.092</v>
+        <v>26.28</v>
       </c>
     </row>
   </sheetData>
